--- a/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
+++ b/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eee8aa"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,105 +924,93 @@
       <c r="AE5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037004</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change communications and marketing</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour change policy option that involves using correspondence, print, signage, electronic, or broadcast media to deliver messaging.</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Using communication channels, including electronic, print and broadcast media and correspondence to deliver messaging.</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change policy option</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050290</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>A causal process in which something leads a human behaviour or behaviour pattern to occur, be maintained, not occur, or be enacted differently.</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Something changing behaviour from what would have occurred otherwise.</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>communication and marketing</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="inlineStr"/>
-      <c r="W6" s="2" t="inlineStr">
-        <is>
-          <t>This includes mass media, social media, and all types of marketing, including highly targeted and tailored marketing.</t>
-        </is>
-      </c>
-      <c r="X6" s="2" t="inlineStr"/>
-      <c r="Y6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" s="2" t="inlineStr"/>
-      <c r="AA6" s="2" t="inlineStr"/>
-      <c r="AB6" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AC6" s="2" t="inlineStr"/>
-      <c r="AD6" s="2" t="inlineStr"/>
-      <c r="AE6" s="2" t="inlineStr"/>
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr"/>
+      <c r="P6" s="3" t="inlineStr"/>
+      <c r="Q6" s="3" t="inlineStr"/>
+      <c r="R6" s="3" t="inlineStr"/>
+      <c r="S6" s="3" t="inlineStr"/>
+      <c r="T6" s="3" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="3" t="inlineStr"/>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>The 'change' in the label refers to change from what would have happened otherwise, not change from the current behaviour. Thus it includes preventing people from starting a behaviour such as smoking, and maintaining a behaviour such as physical activity, as well as starting or stopping a behaviour. The 'something' in the definition refers to any class of entity, including siting of objects (e.g. presence of a sign to deter trespassing), processes (e.g. taking a pill to stop smoking).</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr"/>
+      <c r="Y6" s="3" t="inlineStr"/>
+      <c r="Z6" s="3" t="inlineStr"/>
+      <c r="AA6" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="AB6" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="AC6" s="3" t="inlineStr"/>
+      <c r="AD6" s="3" t="inlineStr"/>
+      <c r="AE6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037005</t>
+          <t>BCIO:037004</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>behaviour change environmental and social planning</t>
+          <t>behaviour change communications and marketing</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves a formal planning process andto create and implement changes to the physical or social environment.</t>
+          <t>A behaviour change policy option that involves using correspondence, print, signage, electronic, or broadcast media to deliver messaging.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Using  a formal planning process to create and implement changes to the physical or social environment.</t>
+          <t>Using communication channels, including electronic, print and broadcast media and correspondence to deliver messaging.</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
@@ -1053,13 +1047,13 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>environmental and social planning</t>
+          <t>communication and marketing</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr"/>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>This includes all urban and rural planning, planning relating to road and other forms of transport infrastructure. It also includes organisational planning regarding physical environments undertaken by organisations. It also includes planning social services programmes, services, and policies.</t>
+          <t>This includes mass media, social media, and all types of marketing, including highly targeted and tailored marketing.</t>
         </is>
       </c>
       <c r="X7" s="2" t="inlineStr"/>
@@ -1082,22 +1076,22 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037006</t>
+          <t>BCIO:037005</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>behaviour change fiscal measure</t>
+          <t>behaviour change environmental and social planning</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves implementing financial rules, including taxation.</t>
+          <t>A behaviour change policy option that involves a formal planning process andto create and implement changes to the physical or social environment.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Implementing financial rules, including taxation.</t>
+          <t>Using  a formal planning process to create and implement changes to the physical or social environment.</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
@@ -1134,13 +1128,13 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>fiscal measure</t>
+          <t>environmental and social planning</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr"/>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>This includes all policies relating to tax and fee structures and financial incentive schemes by governments and organisations of all kinds.</t>
+          <t>This includes all urban and rural planning, planning relating to road and other forms of transport infrastructure. It also includes organisational planning regarding physical environments undertaken by organisations. It also includes planning social services programmes, services, and policies.</t>
         </is>
       </c>
       <c r="X8" s="2" t="inlineStr"/>
@@ -1163,22 +1157,22 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037007</t>
+          <t>BCIO:037006</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>behaviour change guideline provision</t>
+          <t>behaviour change fiscal measure</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves creating and disseminating documents that include recommendations for actions or practices.</t>
+          <t>A behaviour change policy option that involves implementing financial rules, including taxation.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Creating and disseminating guidelines.</t>
+          <t>Implementing financial rules, including taxation.</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr"/>
@@ -1215,13 +1209,13 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>guideline provision</t>
+          <t>fiscal measure</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr"/>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>This includes both the development, dissemination and promotion of guidelines. It does not include application of sanctions or incentives, which are covered by other policy options.</t>
+          <t>This includes all policies relating to tax and fee structures and financial incentive schemes by governments and organisations of all kinds.</t>
         </is>
       </c>
       <c r="X9" s="2" t="inlineStr"/>
@@ -1244,29 +1238,29 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
+          <t>BCIO:037007</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>behaviour change guideline provision</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing human behaviour.</t>
+          <t>A behaviour change policy option that involves creating and disseminating documents that include recommendations for actions or practices.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Something done to influence behaviour.</t>
+          <t>Creating and disseminating guidelines.</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1281,11 +1275,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>outcome behaviour</t>
-        </is>
-      </c>
+      <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr"/>
@@ -1293,14 +1283,22 @@
       <c r="Q10" s="2" t="inlineStr"/>
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>guideline provision</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr"/>
-      <c r="W10" s="2" t="inlineStr"/>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>This includes both the development, dissemination and promotion of guidelines. It does not include application of sanctions or incentives, which are covered by other policy options.</t>
+        </is>
+      </c>
       <c r="X10" s="2" t="inlineStr"/>
       <c r="Y10" s="2" t="inlineStr">
         <is>
@@ -1308,11 +1306,7 @@
         </is>
       </c>
       <c r="Z10" s="2" t="inlineStr"/>
-      <c r="AA10" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="AA10" s="2" t="inlineStr"/>
       <c r="AB10" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1325,29 +1319,29 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:003000</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>A process that is the physical or informational medium through which a BCI is provided.</t>
+          <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>The means by which a behaviour change intervention is delivered.</t>
+          <t>Something done to influence behaviour.</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1362,7 +1356,11 @@
       </c>
       <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>outcome behaviour</t>
+        </is>
+      </c>
       <c r="M11" s="2" t="inlineStr"/>
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr"/>
@@ -1373,15 +1371,11 @@
       <c r="T11" s="2" t="inlineStr"/>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>mode of delivery</t>
+          <t>BCI</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr"/>
-      <c r="W11" s="2" t="inlineStr">
-        <is>
-          <t>This includes all the ways in which a behaviour change intervention can be delivered and has a large number of subclasses defined in the BCIO.</t>
-        </is>
-      </c>
+      <c r="W11" s="2" t="inlineStr"/>
       <c r="X11" s="2" t="inlineStr"/>
       <c r="Y11" s="2" t="inlineStr">
         <is>
@@ -1406,29 +1400,29 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037008</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change legislation</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves developing and enacting legal instruments.</t>
+          <t>A process that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Developing and enacting laws.</t>
+          <t>The means by which a behaviour change intervention is delivered.</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1451,18 +1445,18 @@
       <c r="Q12" s="2" t="inlineStr"/>
       <c r="R12" s="2" t="inlineStr"/>
       <c r="S12" s="2" t="inlineStr"/>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
+      <c r="T12" s="2" t="inlineStr"/>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>legislation</t>
+          <t>mode of delivery</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr"/>
-      <c r="W12" s="2" t="inlineStr"/>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>This includes all the ways in which a behaviour change intervention can be delivered and has a large number of subclasses defined in the BCIO.</t>
+        </is>
+      </c>
       <c r="X12" s="2" t="inlineStr"/>
       <c r="Y12" s="2" t="inlineStr">
         <is>
@@ -1470,7 +1464,11 @@
         </is>
       </c>
       <c r="Z12" s="2" t="inlineStr"/>
-      <c r="AA12" s="2" t="inlineStr"/>
+      <c r="AA12" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1483,29 +1481,29 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037009</t>
+          <t>BCIO:037008</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>behaviour change legislation</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is enacted by a government or organisation and aims to implement a behaviour change intervention.</t>
+          <t>A behaviour change policy option that involves developing and enacting legal instruments.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Strategic options that governments or organisations have for putting into effect behaviour change interventions.</t>
+          <t>Developing and enacting laws.</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1535,15 +1533,11 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>policy option</t>
+          <t>legislation</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr"/>
-      <c r="W13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class </t>
-        </is>
-      </c>
+      <c r="W13" s="2" t="inlineStr"/>
       <c r="X13" s="2" t="inlineStr"/>
       <c r="Y13" s="2" t="inlineStr">
         <is>
@@ -1564,29 +1558,29 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037010</t>
+          <t>BCIO:037009</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>behaviour change regulation</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves creating and implementing rules of behaviour that do not involve legislation.</t>
+          <t>A planned process that is enacted by a government or organisation and aims to implement a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Creating and implementing regulations short of legislation.</t>
+          <t>Strategic options that governments or organisations have for putting into effect behaviour change interventions.</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1616,11 +1610,15 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>regulation</t>
+          <t>policy option</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr"/>
-      <c r="W14" s="2" t="inlineStr"/>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class </t>
+        </is>
+      </c>
       <c r="X14" s="2" t="inlineStr"/>
       <c r="Y14" s="2" t="inlineStr">
         <is>
@@ -1641,22 +1639,22 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037011</t>
+          <t>BCIO:037010</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>behaviour change service provision</t>
+          <t>behaviour change regulation</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves providing one or more services, or material or informational resources.</t>
+          <t>A behaviour change policy option that involves creating and implementing rules of behaviour that do not involve legislation.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Providing a service or resources.</t>
+          <t>Creating and implementing regulations short of legislation.</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1693,7 +1691,7 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>service provision</t>
+          <t>regulation</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr"/>
@@ -1718,29 +1716,29 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>BCIO:037011</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>behaviour change service provision</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>A behaviour change policy option that involves providing one or more services, or material or informational resources.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>The smallest part of a behaviour change intervention that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>Providing a service or resources.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1763,10 +1761,14 @@
       <c r="Q16" s="2" t="inlineStr"/>
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
-      <c r="T16" s="2" t="inlineStr"/>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>BCT</t>
+          <t>service provision</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr"/>
@@ -1789,203 +1791,199 @@
       <c r="AE16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:033000</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>The smallest part of a behaviour change intervention that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr"/>
+      <c r="T17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr"/>
+      <c r="W17" s="2" t="inlineStr"/>
+      <c r="X17" s="2" t="inlineStr"/>
+      <c r="Y17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" s="2" t="inlineStr"/>
+      <c r="AA17" s="2" t="inlineStr"/>
+      <c r="AB17" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AC17" s="2" t="inlineStr"/>
+      <c r="AD17" s="2" t="inlineStr"/>
+      <c r="AE17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>MF:0000048</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>behavioural capability</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>A personal disposition that together with behavioural opportunity makes a behaviour possible or facilitates it.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>The set of physical and psychological abilities of a person in relation to a given behaviour.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>personal disposition</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>MoA: personal capability</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
         <is>
           <t>Amend MF:0000048 and MoA to reflect new label and definition?</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>capability</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
         <is>
           <t>All references to this entity must specify what behaviour the capability relates to. Capability can be construed quantitatively (how capable) and as a dichotomy (capable or not). This is different from 'ability' in that the latter does not stand in relation to a behaviour.</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr">
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037012</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>behavioural diagnosis</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>A process  that aims to identify types, parts or attributes of capability, opportunity or motivation that can usefully be targeted to achieve a desired behaviour.</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Part of the development of a behaviour change intervention that involves deciding what combination of capability, opportunity or motivation can be most usefully targeted.</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>Intervention plan</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr"/>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention plan ontology (yet to be created)</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>COM-B diagnosis</t>
-        </is>
-      </c>
-      <c r="V18" s="2" t="inlineStr"/>
-      <c r="W18" s="2" t="inlineStr"/>
-      <c r="X18" s="2" t="inlineStr"/>
-      <c r="Y18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" s="2" t="inlineStr"/>
-      <c r="AA18" s="2" t="inlineStr"/>
-      <c r="AB18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AC18" s="2" t="inlineStr"/>
-      <c r="AD18" s="2" t="inlineStr"/>
-      <c r="AE18" s="2" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037013</t>
+          <t>BCIO:037012</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural diagnosis</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>An environmental disposition that together with behavioural capability makes a behaviour possible or facilitates it.</t>
+          <t>A process  that aims to identify types, parts or attributes of capability, opportunity or motivation that can usefully be targeted to achieve a desired behaviour.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Properties of a person's environment that make it possible or easier for them to enact a behaviour.</t>
+          <t>Part of the development of a behaviour change intervention that involves deciding what combination of capability, opportunity or motivation can be most usefully targeted.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention plan</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
@@ -2000,12 +1998,12 @@
       <c r="S19" s="2" t="inlineStr"/>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006086 in MoA ontology?</t>
+          <t>Add to intervention plan ontology (yet to be created)</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>COM-B diagnosis</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr"/>
@@ -2017,11 +2015,7 @@
         </is>
       </c>
       <c r="Z19" s="2" t="inlineStr"/>
-      <c r="AA19" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="AA19" s="2" t="inlineStr"/>
       <c r="AB19" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2032,109 +2026,117 @@
       <c r="AE19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MF:0000032</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A disposition that inheres in some extended organism.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>A disposition of any kind of organism.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037013</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>An environmental disposition that together with behavioural capability makes a behaviour possible or facilitates it.</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that make it possible or easier for them to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr">
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>Amend BCIO:006086 in MoA ontology?</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr"/>
+      <c r="W20" s="2" t="inlineStr"/>
+      <c r="X20" s="2" t="inlineStr"/>
+      <c r="Y20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z20" s="2" t="inlineStr"/>
+      <c r="AA20" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
+      <c r="AB20" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AC20" s="2" t="inlineStr"/>
+      <c r="AD20" s="2" t="inlineStr"/>
+      <c r="AE20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OGMS:0000060</t>
+          <t>MF:0000032</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organsim participates.</t>
+          <t>A disposition that inheres in some extended organism.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A process occurring in an organism.</t>
+          <t>A disposition of any kind of organism.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2165,7 +2167,7 @@
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2178,104 +2180,104 @@
       <c r="AE21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037014</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>brain process</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that involves the brain.</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>A process that occurs in the brain.</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OGMS:0000060</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A process in which at least one bodily component of an organsim participates.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A process occurring in an organism.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
-      <c r="R22" s="2" t="inlineStr"/>
-      <c r="S22" s="2" t="inlineStr"/>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
-      <c r="W22" s="2" t="inlineStr"/>
-      <c r="X22" s="2" t="inlineStr"/>
-      <c r="Y22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z22" s="2" t="inlineStr"/>
-      <c r="AA22" s="2" t="inlineStr"/>
-      <c r="AB22" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AC22" s="2" t="inlineStr"/>
-      <c r="AD22" s="2" t="inlineStr"/>
-      <c r="AE22" s="2" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037015</t>
+          <t>BCIO:037014</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>coercive behaviour change intervention</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves applying a negative contingency in order to influence motivation, or informing a person that one intends to do so.</t>
+          <t>A bodily process that involves the brain.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Applying costs or punishments to a behaviour.</t>
+          <t>A process that occurs in the brain.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2285,7 +2287,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
@@ -2300,20 +2302,12 @@
       <c r="S23" s="2" t="inlineStr"/>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>coercion</t>
-        </is>
-      </c>
+          <t>Add to MoA and MF?</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr"/>
       <c r="V23" s="2" t="inlineStr"/>
-      <c r="W23" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of punishment as well as financial cost and denial of rewards.</t>
-        </is>
-      </c>
+      <c r="W23" s="2" t="inlineStr"/>
       <c r="X23" s="2" t="inlineStr"/>
       <c r="Y23" s="2" t="inlineStr">
         <is>
@@ -2332,190 +2326,194 @@
       <c r="AE23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037015</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>coercive behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that involves applying a negative contingency in order to influence motivation, or informing a person that one intends to do so.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Applying costs or punishments to a behaviour.</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr"/>
+      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr"/>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>coercion</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr"/>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of punishment as well as financial cost and denial of rewards.</t>
+        </is>
+      </c>
+      <c r="X24" s="2" t="inlineStr"/>
+      <c r="Y24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z24" s="2" t="inlineStr"/>
+      <c r="AA24" s="2" t="inlineStr"/>
+      <c r="AB24" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AC24" s="2" t="inlineStr"/>
+      <c r="AD24" s="2" t="inlineStr"/>
+      <c r="AE24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000008 </t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Creation or manipulation of mental representations of information.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>psychological process</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
         <is>
           <t>Question as to whether this is better as a psychological process since this class does not necessarily involve conscious experience</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr">
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037016</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>criterion</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>A standard that can be used to evaluate something.</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr"/>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
-      <c r="W25" s="2" t="inlineStr"/>
-      <c r="X25" s="2" t="inlineStr"/>
-      <c r="Y25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z25" s="2" t="inlineStr"/>
-      <c r="AA25" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="AB25" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AC25" s="2" t="inlineStr"/>
-      <c r="AD25" s="2" t="inlineStr"/>
-      <c r="AE25" s="2" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037017</t>
+          <t>BCIO:037016</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>educational behaviour change intervention</t>
+          <t>criterion</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves informing or explaining in order to increase knowledge or understanding.</t>
+          <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Informing or explaining things to increase knowledge or understanding relating to a behaviour.</t>
+          <t>A standard that can be used to evaluate something.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -2538,17 +2536,9 @@
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
+      <c r="U26" s="2" t="inlineStr"/>
       <c r="V26" s="2" t="inlineStr"/>
-      <c r="W26" s="2" t="inlineStr">
-        <is>
-          <t>This class separates education from training even though in common discourse training is often included within education.</t>
-        </is>
-      </c>
+      <c r="W26" s="2" t="inlineStr"/>
       <c r="X26" s="2" t="inlineStr"/>
       <c r="Y26" s="2" t="inlineStr">
         <is>
@@ -2556,7 +2546,11 @@
         </is>
       </c>
       <c r="Z26" s="2" t="inlineStr"/>
-      <c r="AA26" s="2" t="inlineStr"/>
+      <c r="AA26" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB26" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2569,34 +2563,34 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037018</t>
+          <t>BCIO:037017</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>effectiveness intervention criterion</t>
+          <t>educational behaviour change intervention</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated leads to desired outcomes and is worth the financial cost.</t>
+          <t>A behaviour change intervention that involves informing or explaining in order to increase knowledge or understanding.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention achieves or is likely to achieve a desired outcome and provides value for money.</t>
+          <t>Informing or explaining things to increase knowledge or understanding relating to a behaviour.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -2621,13 +2615,13 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>education</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr"/>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>This includes two closely related criteria: effectiveness and cost-effectiveness. Effectiveness can be in relation to any desired outcome so the outcome needs to be specified. It may be a behavioural outcome such as smoking cessation or a health outcome such as quality adjusted life years. Cost-effectiveness similarly requires the outcome to be specified and operationalised.</t>
+          <t>This class separates education from training even though in common discourse training is often included within education.</t>
         </is>
       </c>
       <c r="X27" s="2" t="inlineStr"/>
@@ -2650,34 +2644,34 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037019</t>
+          <t>BCIO:037018</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>enablement behaviour change inervention</t>
+          <t>effectiveness intervention criterion</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves providing support, or material or financial resources to influence behavioural capability or opportunity.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated leads to desired outcomes and is worth the financial cost.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Providing physical or social support, or material or financial resources that make it possible or easier to enact a behaviour.</t>
+          <t>How far an intervention or part of an intervention achieves or is likely to achieve a desired outcome and provides value for money.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -2702,13 +2696,13 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>enablement</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr"/>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This includes performing surgery, providing pharmaceuticals, funding, social support, forms of counselling, and financial and material resources. </t>
+          <t>This includes two closely related criteria: effectiveness and cost-effectiveness. Effectiveness can be in relation to any desired outcome so the outcome needs to be specified. It may be a behavioural outcome such as smoking cessation or a health outcome such as quality adjusted life years. Cost-effectiveness similarly requires the outcome to be specified and operationalised.</t>
         </is>
       </c>
       <c r="X28" s="2" t="inlineStr"/>
@@ -2731,39 +2725,39 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050001</t>
+          <t>BCIO:037019</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>enablement behaviour change inervention</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A disposition inhering in an environmental system.</t>
+          <t>A behaviour change intervention that involves providing support, or material or financial resources to influence behavioural capability or opportunity.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>A disposition of an environment.</t>
+          <t>Providing physical or social support, or material or financial resources that make it possible or easier to enact a behaviour.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Setting</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
@@ -2776,10 +2770,22 @@
       <c r="Q29" s="2" t="inlineStr"/>
       <c r="R29" s="2" t="inlineStr"/>
       <c r="S29" s="2" t="inlineStr"/>
-      <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr"/>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>enablement</t>
+        </is>
+      </c>
       <c r="V29" s="2" t="inlineStr"/>
-      <c r="W29" s="2" t="inlineStr"/>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes performing surgery, providing pharmaceuticals, funding, social support, forms of counselling, and financial and material resources. </t>
+        </is>
+      </c>
       <c r="X29" s="2" t="inlineStr"/>
       <c r="Y29" s="2" t="inlineStr">
         <is>
@@ -2787,11 +2793,7 @@
         </is>
       </c>
       <c r="Z29" s="2" t="inlineStr"/>
-      <c r="AA29" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
+      <c r="AA29" s="2" t="inlineStr"/>
       <c r="AB29" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2804,39 +2806,39 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037020</t>
+          <t>BCIO:050001</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>environmental restructuring behaviour change intervention</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
+          <t>A disposition inhering in an environmental system.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
+          <t>A disposition of an environment.</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
@@ -2849,22 +2851,10 @@
       <c r="Q30" s="2" t="inlineStr"/>
       <c r="R30" s="2" t="inlineStr"/>
       <c r="S30" s="2" t="inlineStr"/>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>environmental restructuring</t>
-        </is>
-      </c>
+      <c r="T30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr"/>
       <c r="V30" s="2" t="inlineStr"/>
-      <c r="W30" s="2" t="inlineStr">
-        <is>
-          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
-        </is>
-      </c>
+      <c r="W30" s="2" t="inlineStr"/>
       <c r="X30" s="2" t="inlineStr"/>
       <c r="Y30" s="2" t="inlineStr">
         <is>
@@ -2872,7 +2862,11 @@
         </is>
       </c>
       <c r="Z30" s="2" t="inlineStr"/>
-      <c r="AA30" s="2" t="inlineStr"/>
+      <c r="AA30" s="2" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2885,34 +2879,34 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037021</t>
+          <t>BCIO:037020</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>equity intervention criterion</t>
+          <t>environmental restructuring behaviour change intervention</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
+          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
+          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2937,13 +2931,13 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>environmental restructuring</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr"/>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
+          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
         </is>
       </c>
       <c r="X31" s="2" t="inlineStr"/>
@@ -2966,43 +2960,39 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:037021</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>equity intervention criterion</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour or population behaviour.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>The actions of people, either as individuals or groups or populations.</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>'individual human behaviour' or 'population behaviour'</t>
-        </is>
-      </c>
+          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
@@ -3017,16 +3007,20 @@
       <c r="S32" s="2" t="inlineStr"/>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr"/>
-      <c r="W32" s="2" t="inlineStr"/>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
+        </is>
+      </c>
       <c r="X32" s="2" t="inlineStr"/>
       <c r="Y32" s="2" t="inlineStr">
         <is>
@@ -3034,11 +3028,7 @@
         </is>
       </c>
       <c r="Z32" s="2" t="inlineStr"/>
-      <c r="AA32" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="AA32" s="2" t="inlineStr"/>
       <c r="AB32" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3051,29 +3041,33 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037022</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>incentivisation  behaviour change intervention</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
+          <t>Individual human behaviour or population behaviour.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Applying rewards to a behaviour.</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>The actions of people, either as individuals or groups or populations.</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>'individual human behaviour' or 'population behaviour'</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -3083,7 +3077,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
@@ -3098,20 +3092,16 @@
       <c r="S33" s="2" t="inlineStr"/>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
+          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>incentivisation</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr"/>
-      <c r="W33" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
-        </is>
-      </c>
+      <c r="W33" s="2" t="inlineStr"/>
       <c r="X33" s="2" t="inlineStr"/>
       <c r="Y33" s="2" t="inlineStr">
         <is>
@@ -3119,7 +3109,11 @@
         </is>
       </c>
       <c r="Z33" s="2" t="inlineStr"/>
-      <c r="AA33" s="2" t="inlineStr"/>
+      <c r="AA33" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB33" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3132,39 +3126,39 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:037022</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>incentivisation  behaviour change intervention</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>The actions of individual people.</t>
+          <t>Applying rewards to a behaviour.</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
+          <t>behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
@@ -3177,14 +3171,22 @@
       <c r="Q34" s="2" t="inlineStr"/>
       <c r="R34" s="2" t="inlineStr"/>
       <c r="S34" s="2" t="inlineStr"/>
-      <c r="T34" s="2" t="inlineStr"/>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>incentivisation</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr"/>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
+        </is>
+      </c>
       <c r="X34" s="2" t="inlineStr"/>
       <c r="Y34" s="2" t="inlineStr">
         <is>
@@ -3192,11 +3194,7 @@
         </is>
       </c>
       <c r="Z34" s="2" t="inlineStr"/>
-      <c r="AA34" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="AA34" s="2" t="inlineStr"/>
       <c r="AB34" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3207,183 +3205,191 @@
       <c r="AE34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>The actions of individual people.</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr"/>
+      <c r="W35" s="2" t="inlineStr"/>
+      <c r="X35" s="2" t="inlineStr"/>
+      <c r="Y35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z35" s="2" t="inlineStr"/>
+      <c r="AA35" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="AB35" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AC35" s="2" t="inlineStr"/>
+      <c r="AD35" s="2" t="inlineStr"/>
+      <c r="AE35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>IAO:0000030</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>A generically dependent continuant that is about some thing.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>An item of information about something.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037000</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>Something done to influence an outcome.</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
-      <c r="W36" s="2" t="inlineStr"/>
-      <c r="X36" s="2" t="inlineStr"/>
-      <c r="Y36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z36" s="2" t="inlineStr"/>
-      <c r="AA36" s="2" t="inlineStr"/>
-      <c r="AB36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AC36" s="2" t="inlineStr"/>
-      <c r="AD36" s="2" t="inlineStr"/>
-      <c r="AE36" s="2" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Something done to influence an outcome.</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
@@ -3397,11 +3403,7 @@
       <c r="R37" s="2" t="inlineStr"/>
       <c r="S37" s="2" t="inlineStr"/>
       <c r="T37" s="2" t="inlineStr"/>
-      <c r="U37" s="2" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
+      <c r="U37" s="2" t="inlineStr"/>
       <c r="V37" s="2" t="inlineStr"/>
       <c r="W37" s="2" t="inlineStr"/>
       <c r="X37" s="2" t="inlineStr"/>
@@ -3424,39 +3426,39 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037023</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>intervention stakeholder</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Any person or organisation with a legitimate interest in an intervention</t>
+          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
@@ -3469,14 +3471,10 @@
       <c r="Q38" s="2" t="inlineStr"/>
       <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr"/>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
+      <c r="T38" s="2" t="inlineStr"/>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>outcome</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr"/>
@@ -3499,185 +3497,181 @@
       <c r="AE38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037023</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>intervention stakeholder</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Any person or organisation with a legitimate interest in an intervention</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>social role</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr"/>
+      <c r="W39" s="2" t="inlineStr"/>
+      <c r="X39" s="2" t="inlineStr"/>
+      <c r="Y39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z39" s="2" t="inlineStr"/>
+      <c r="AA39" s="2" t="inlineStr"/>
+      <c r="AB39" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AC39" s="2" t="inlineStr"/>
+      <c r="AD39" s="2" t="inlineStr"/>
+      <c r="AE39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>A bodily process that is of a type such that it can of itself be conscious.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>A brain process that involves conscious exerience.</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
         <is>
           <t>MF:0000020 MF definition should be tidied up to confirm to recommended structure and perhaps parent is better as brain process?</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr">
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037024</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>modelling behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>Providing an example for people to imitate, learn from or aspire to.</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr"/>
-      <c r="T40" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U40" s="2" t="inlineStr">
-        <is>
-          <t>modelling</t>
-        </is>
-      </c>
-      <c r="V40" s="2" t="inlineStr"/>
-      <c r="W40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
-        </is>
-      </c>
-      <c r="X40" s="2" t="inlineStr"/>
-      <c r="Y40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z40" s="2" t="inlineStr"/>
-      <c r="AA40" s="2" t="inlineStr"/>
-      <c r="AB40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AC40" s="2" t="inlineStr"/>
-      <c r="AD40" s="2" t="inlineStr"/>
-      <c r="AE40" s="2" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:037024</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>modelling behaviour change intervention</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour.</t>
+          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
+          <t>Providing an example for people to imitate, learn from or aspire to.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3687,7 +3681,7 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
@@ -3702,12 +3696,20 @@
       <c r="S41" s="2" t="inlineStr"/>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006133 in MoA to correct the definition</t>
-        </is>
-      </c>
-      <c r="U41" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>modelling</t>
+        </is>
+      </c>
       <c r="V41" s="2" t="inlineStr"/>
-      <c r="W41" s="2" t="inlineStr"/>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
+        </is>
+      </c>
       <c r="X41" s="2" t="inlineStr"/>
       <c r="Y41" s="2" t="inlineStr">
         <is>
@@ -3728,39 +3730,39 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037025</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>negative behavioural contingency</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>A process in which an undesirable event results from a behaviour.</t>
+          <t>A psychological process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a punishment or cost.</t>
+          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
+          <t>psychological process</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
@@ -3775,7 +3777,7 @@
       <c r="S42" s="2" t="inlineStr"/>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:006133 in MoA to correct the definition</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr"/>
@@ -3801,33 +3803,29 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:037025</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>outcome behaviour</t>
+          <t>negative behavioural contingency</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A process in which an undesirable event results from a behaviour.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Linking a behaviour to a punishment or cost.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>'human behaviour' and 'intervention outcome'</t>
-        </is>
-      </c>
+      <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3837,7 +3835,7 @@
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
@@ -3850,7 +3848,11 @@
       <c r="Q43" s="2" t="inlineStr"/>
       <c r="R43" s="2" t="inlineStr"/>
       <c r="S43" s="2" t="inlineStr"/>
-      <c r="T43" s="2" t="inlineStr"/>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
       <c r="U43" s="2" t="inlineStr"/>
       <c r="V43" s="2" t="inlineStr"/>
       <c r="W43" s="2" t="inlineStr"/>
@@ -3861,11 +3863,7 @@
         </is>
       </c>
       <c r="Z43" s="2" t="inlineStr"/>
-      <c r="AA43" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="AA43" s="2" t="inlineStr"/>
       <c r="AB43" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3878,39 +3876,43 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050002</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>personal disposition</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A disposition that inheres in a person.</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>A disposition of a person.</t>
+          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>'human behaviour' and 'intervention outcome'</t>
+        </is>
+      </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
@@ -3936,7 +3938,7 @@
       <c r="Z44" s="2" t="inlineStr"/>
       <c r="AA44" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="AB44" s="2" t="inlineStr">
@@ -3951,39 +3953,39 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037026</t>
+          <t>BCIO:050002</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>persuasive behaviour change intervention</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
+          <t>A disposition that inheres in a person.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
+          <t>A disposition of a person.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
@@ -3996,16 +3998,8 @@
       <c r="Q45" s="2" t="inlineStr"/>
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr"/>
-      <c r="T45" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U45" s="2" t="inlineStr">
-        <is>
-          <t>persuasion</t>
-        </is>
-      </c>
+      <c r="T45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="inlineStr"/>
       <c r="V45" s="2" t="inlineStr"/>
       <c r="W45" s="2" t="inlineStr"/>
       <c r="X45" s="2" t="inlineStr"/>
@@ -4015,7 +4009,11 @@
         </is>
       </c>
       <c r="Z45" s="2" t="inlineStr"/>
-      <c r="AA45" s="2" t="inlineStr"/>
+      <c r="AA45" s="2" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
       <c r="AB45" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4028,39 +4026,39 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:037026</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>persuasive behaviour change intervention</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>A person's abilities arising from their physique and bodily functioning.</t>
+          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
@@ -4075,16 +4073,16 @@
       <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t>persuasion</t>
+        </is>
+      </c>
       <c r="V46" s="2" t="inlineStr"/>
-      <c r="W46" s="2" t="inlineStr">
-        <is>
-          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
-        </is>
-      </c>
+      <c r="W46" s="2" t="inlineStr"/>
       <c r="X46" s="2" t="inlineStr"/>
       <c r="Y46" s="2" t="inlineStr">
         <is>
@@ -4105,29 +4103,29 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
+          <t>A person's abilities arising from their physique and bodily functioning.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -4152,14 +4150,14 @@
       <c r="S47" s="2" t="inlineStr"/>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006089 in MoA?</t>
+          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr"/>
       <c r="V47" s="2" t="inlineStr"/>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
         </is>
       </c>
       <c r="X47" s="2" t="inlineStr"/>
@@ -4169,11 +4167,7 @@
         </is>
       </c>
       <c r="Z47" s="2" t="inlineStr"/>
-      <c r="AA47" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="AA47" s="2" t="inlineStr"/>
       <c r="AB47" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4186,39 +4180,39 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A process that is an aggregate of individual human behaviours of members of a population.</t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>The actions of groups of people or populations.</t>
+          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr"/>
@@ -4233,12 +4227,16 @@
       <c r="S48" s="2" t="inlineStr"/>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
+          <t>Amend BCIO:006089 in MoA?</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr"/>
       <c r="V48" s="2" t="inlineStr"/>
-      <c r="W48" s="2" t="inlineStr"/>
+      <c r="W48" s="2" t="inlineStr">
+        <is>
+          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+        </is>
+      </c>
       <c r="X48" s="2" t="inlineStr"/>
       <c r="Y48" s="2" t="inlineStr">
         <is>
@@ -4258,31 +4256,27 @@
       </c>
       <c r="AC48" s="2" t="inlineStr"/>
       <c r="AD48" s="2" t="inlineStr"/>
-      <c r="AE48" s="2" t="inlineStr">
-        <is>
-          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
-        </is>
-      </c>
+      <c r="AE48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037027</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>positive behavioural contingency</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>A process in which a desirable event follows from a behaviour.</t>
+          <t>A process that is an aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a reward</t>
+          <t>The actions of groups of people or populations.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
@@ -4299,7 +4293,7 @@
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
@@ -4314,7 +4308,7 @@
       <c r="S49" s="2" t="inlineStr"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr"/>
@@ -4327,7 +4321,11 @@
         </is>
       </c>
       <c r="Z49" s="2" t="inlineStr"/>
-      <c r="AA49" s="2" t="inlineStr"/>
+      <c r="AA49" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB49" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4335,39 +4333,43 @@
       </c>
       <c r="AC49" s="2" t="inlineStr"/>
       <c r="AD49" s="2" t="inlineStr"/>
-      <c r="AE49" s="2" t="inlineStr"/>
+      <c r="AE49" s="2" t="inlineStr">
+        <is>
+          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037028</t>
+          <t>BCIO:037027</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>practicability intervention criterion</t>
+          <t>positive behavioural contingency</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
+          <t>A process in which a desirable event follows from a behaviour.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
+          <t>Linking a behaviour to a reward</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -4387,20 +4389,12 @@
       <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U50" s="2" t="inlineStr">
-        <is>
-          <t>practicability</t>
-        </is>
-      </c>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="inlineStr"/>
       <c r="V50" s="2" t="inlineStr"/>
-      <c r="W50" s="2" t="inlineStr">
-        <is>
-          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
-        </is>
-      </c>
+      <c r="W50" s="2" t="inlineStr"/>
       <c r="X50" s="2" t="inlineStr"/>
       <c r="Y50" s="2" t="inlineStr">
         <is>
@@ -4421,39 +4415,39 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037029</t>
+          <t>BCIO:037028</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>psychological behavioural capability</t>
+          <t>practicability intervention criterion</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
+          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
@@ -4468,16 +4462,20 @@
       <c r="S51" s="2" t="inlineStr"/>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF as distinct from mental capability?</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>psychological capability</t>
+          <t>practicability</t>
         </is>
       </c>
       <c r="V51" s="2" t="inlineStr"/>
-      <c r="W51" s="2" t="inlineStr"/>
+      <c r="W51" s="2" t="inlineStr">
+        <is>
+          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
+        </is>
+      </c>
       <c r="X51" s="2" t="inlineStr"/>
       <c r="Y51" s="2" t="inlineStr">
         <is>
@@ -4498,34 +4496,34 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037030</t>
+          <t>BCIO:037029</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>psychological behavioural capability</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
+          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>A process underpinning experience or generation of behaviour.</t>
+          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -4545,10 +4543,14 @@
       <c r="S52" s="2" t="inlineStr"/>
       <c r="T52" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="U52" s="2" t="inlineStr"/>
+          <t>Add to MoA and MF as distinct from mental capability?</t>
+        </is>
+      </c>
+      <c r="U52" s="2" t="inlineStr">
+        <is>
+          <t>psychological capability</t>
+        </is>
+      </c>
       <c r="V52" s="2" t="inlineStr"/>
       <c r="W52" s="2" t="inlineStr"/>
       <c r="X52" s="2" t="inlineStr"/>
@@ -4571,29 +4573,29 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037031</t>
+          <t>BCIO:037030</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>reflective motivation</t>
+          <t>psychological process</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A motivation that involves reflective thinking.</t>
+          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Psychological processes of conscious planning and decision making.</t>
+          <t>A process underpinning experience or generation of behaviour.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -4610,11 +4612,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr"/>
       <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr">
-        <is>
-          <t>reflective thinking</t>
-        </is>
-      </c>
+      <c r="N53" s="2" t="inlineStr"/>
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr"/>
       <c r="Q53" s="2" t="inlineStr"/>
@@ -4622,16 +4620,12 @@
       <c r="S53" s="2" t="inlineStr"/>
       <c r="T53" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA</t>
+          <t>Add to MoA and MF?</t>
         </is>
       </c>
       <c r="U53" s="2" t="inlineStr"/>
       <c r="V53" s="2" t="inlineStr"/>
-      <c r="W53" s="2" t="inlineStr">
-        <is>
-          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
-        </is>
-      </c>
+      <c r="W53" s="2" t="inlineStr"/>
       <c r="X53" s="2" t="inlineStr"/>
       <c r="Y53" s="2" t="inlineStr">
         <is>
@@ -4639,11 +4633,7 @@
         </is>
       </c>
       <c r="Z53" s="2" t="inlineStr"/>
-      <c r="AA53" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="AA53" s="2" t="inlineStr"/>
       <c r="AB53" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4656,29 +4646,29 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:037031</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>reflective motivation</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
+          <t>A motivation that involves reflective thinking.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Conscious reasoning, estimation, calculation or decision making.</t>
+          <t>Psychological processes of conscious planning and decision making.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -4695,7 +4685,11 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr"/>
       <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>reflective thinking</t>
+        </is>
+      </c>
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr"/>
       <c r="Q54" s="2" t="inlineStr"/>
@@ -4703,12 +4697,16 @@
       <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006112 to reflect improved definition?</t>
+          <t>Add to MoA</t>
         </is>
       </c>
       <c r="U54" s="2" t="inlineStr"/>
       <c r="V54" s="2" t="inlineStr"/>
-      <c r="W54" s="2" t="inlineStr"/>
+      <c r="W54" s="2" t="inlineStr">
+        <is>
+          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
+        </is>
+      </c>
       <c r="X54" s="2" t="inlineStr"/>
       <c r="Y54" s="2" t="inlineStr">
         <is>
@@ -4716,7 +4714,11 @@
         </is>
       </c>
       <c r="Z54" s="2" t="inlineStr"/>
-      <c r="AA54" s="2" t="inlineStr"/>
+      <c r="AA54" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4729,29 +4731,29 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037032</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>restriction behaviour change intervention</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
+          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Using formal social rules to set boundaries for a behaviour.</t>
+          <t>Conscious reasoning, estimation, calculation or decision making.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -4761,7 +4763,7 @@
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr"/>
@@ -4776,20 +4778,12 @@
       <c r="S55" s="2" t="inlineStr"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U55" s="2" t="inlineStr">
-        <is>
-          <t>restriction</t>
-        </is>
-      </c>
+          <t>Amend BCIO:006112 to reflect improved definition?</t>
+        </is>
+      </c>
+      <c r="U55" s="2" t="inlineStr"/>
       <c r="V55" s="2" t="inlineStr"/>
-      <c r="W55" s="2" t="inlineStr">
-        <is>
-          <t>This involves what people should do as well as what they are not allowed to do.</t>
-        </is>
-      </c>
+      <c r="W55" s="2" t="inlineStr"/>
       <c r="X55" s="2" t="inlineStr"/>
       <c r="Y55" s="2" t="inlineStr">
         <is>
@@ -4810,39 +4804,39 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:037032</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>restriction behaviour change intervention</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+          <t>Using formal social rules to set boundaries for a behaviour.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
@@ -4857,12 +4851,20 @@
       <c r="S56" s="2" t="inlineStr"/>
       <c r="T56" s="2" t="inlineStr">
         <is>
-          <t>Amend in MoA?</t>
-        </is>
-      </c>
-      <c r="U56" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="U56" s="2" t="inlineStr">
+        <is>
+          <t>restriction</t>
+        </is>
+      </c>
       <c r="V56" s="2" t="inlineStr"/>
-      <c r="W56" s="2" t="inlineStr"/>
+      <c r="W56" s="2" t="inlineStr">
+        <is>
+          <t>This involves what people should do as well as what they are not allowed to do.</t>
+        </is>
+      </c>
       <c r="X56" s="2" t="inlineStr"/>
       <c r="Y56" s="2" t="inlineStr">
         <is>
@@ -4870,11 +4872,7 @@
         </is>
       </c>
       <c r="Z56" s="2" t="inlineStr"/>
-      <c r="AA56" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="AA56" s="2" t="inlineStr"/>
       <c r="AB56" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4887,39 +4885,39 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037033</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>spill-over effect intervention criterion</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr"/>
@@ -4934,20 +4932,12 @@
       <c r="S57" s="2" t="inlineStr"/>
       <c r="T57" s="2" t="inlineStr">
         <is>
-          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U57" s="2" t="inlineStr">
-        <is>
-          <t>side-effect, spill-over effect, unintended consequence</t>
-        </is>
-      </c>
+          <t>Amend in MoA?</t>
+        </is>
+      </c>
+      <c r="U57" s="2" t="inlineStr"/>
       <c r="V57" s="2" t="inlineStr"/>
-      <c r="W57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
-        </is>
-      </c>
+      <c r="W57" s="2" t="inlineStr"/>
       <c r="X57" s="2" t="inlineStr"/>
       <c r="Y57" s="2" t="inlineStr">
         <is>
@@ -4955,7 +4945,11 @@
         </is>
       </c>
       <c r="Z57" s="2" t="inlineStr"/>
-      <c r="AA57" s="2" t="inlineStr"/>
+      <c r="AA57" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB57" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4966,154 +4960,235 @@
       <c r="AE57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037033</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>spill-over effect intervention criterion</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>APEASE criterion</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr"/>
+      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr"/>
+      <c r="T58" s="2" t="inlineStr">
+        <is>
+          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="U58" s="2" t="inlineStr">
+        <is>
+          <t>side-effect, spill-over effect, unintended consequence</t>
+        </is>
+      </c>
+      <c r="V58" s="2" t="inlineStr"/>
+      <c r="W58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
+        </is>
+      </c>
+      <c r="X58" s="2" t="inlineStr"/>
+      <c r="Y58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z58" s="2" t="inlineStr"/>
+      <c r="AA58" s="2" t="inlineStr"/>
+      <c r="AB58" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AC58" s="2" t="inlineStr"/>
+      <c r="AD58" s="2" t="inlineStr"/>
+      <c r="AE58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Reasoning with words, symbols or images.</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>BCIO:050000</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>training behaviour change intervention</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention  that involves using demonstration, feedback or practice to improve physical or psychological skills.</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
         <is>
           <t>Using demonstration, feedback, and practice to improve physical or psychological skills such as ability to analyse information and plan on the basis of that information.</t>
         </is>
       </c>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="H59" s="2" t="inlineStr">
+      <c r="H60" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I59" s="2" t="inlineStr">
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr"/>
-      <c r="Q59" s="2" t="inlineStr"/>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr"/>
-      <c r="T59" s="2" t="inlineStr">
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr"/>
+      <c r="Q60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr"/>
+      <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="U59" s="2" t="inlineStr">
+      <c r="U60" s="2" t="inlineStr">
         <is>
           <t>training</t>
         </is>
       </c>
-      <c r="V59" s="2" t="inlineStr"/>
-      <c r="W59" s="2" t="inlineStr"/>
-      <c r="X59" s="2" t="inlineStr"/>
-      <c r="Y59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z59" s="2" t="inlineStr"/>
-      <c r="AA59" s="2" t="inlineStr">
+      <c r="V60" s="2" t="inlineStr"/>
+      <c r="W60" s="2" t="inlineStr"/>
+      <c r="X60" s="2" t="inlineStr"/>
+      <c r="Y60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z60" s="2" t="inlineStr"/>
+      <c r="AA60" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="AB59" s="2" t="inlineStr">
+      <c r="AB60" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="AC59" s="2" t="inlineStr"/>
-      <c r="AD59" s="2" t="inlineStr"/>
-      <c r="AE59" s="2" t="inlineStr"/>
+      <c r="AC60" s="2" t="inlineStr"/>
+      <c r="AD60" s="2" t="inlineStr"/>
+      <c r="AE60" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
+++ b/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE60"/>
+  <dimension ref="A1:AE61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +951,11 @@
           <t>process</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr"/>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
           <t>intervention</t>
@@ -968,15 +972,21 @@
       <c r="R6" s="3" t="inlineStr"/>
       <c r="S6" s="3" t="inlineStr"/>
       <c r="T6" s="3" t="inlineStr"/>
-      <c r="U6" s="3" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr">
+        <is>
+          <t>behavioural influence</t>
+        </is>
+      </c>
       <c r="V6" s="3" t="inlineStr"/>
       <c r="W6" s="3" t="inlineStr">
         <is>
-          <t>The 'change' in the label refers to change from what would have happened otherwise, not change from the current behaviour. Thus it includes preventing people from starting a behaviour such as smoking, and maintaining a behaviour such as physical activity, as well as starting or stopping a behaviour. The 'something' in the definition refers to any class of entity, including siting of objects (e.g. presence of a sign to deter trespassing), processes (e.g. taking a pill to stop smoking).</t>
+          <t>The 'change' in the label refers to change from what would have happened otherwise, not change from the current behaviour. Thus it includes preventing people from starting a behaviour such as smoking, and maintaining a behaviour such as physical activity, as well as starting or stopping a behaviour. The 'something' in the definition refers to any class of entity, including siting of objects (e.g. presence of a sign to deter trespassing), processes (e.g. taking a pill to stop smoking). Behaviour change need not involve an intervention. It can involve naturally occurring causes.</t>
         </is>
       </c>
       <c r="X6" s="3" t="inlineStr"/>
-      <c r="Y6" s="3" t="inlineStr"/>
+      <c r="Y6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="Z6" s="3" t="inlineStr"/>
       <c r="AA6" s="3" t="inlineStr">
         <is>
@@ -4496,39 +4506,35 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037029</t>
+          <t>BCIO:050290</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>psychological behavioural capability</t>
+          <t>promotion</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr">
-        <is>
-          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
-        </is>
-      </c>
+          <t>An intervention that is aimed at increasing the likelihood of something.</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr"/>
@@ -4541,26 +4547,18 @@
       <c r="Q52" s="2" t="inlineStr"/>
       <c r="R52" s="2" t="inlineStr"/>
       <c r="S52" s="2" t="inlineStr"/>
-      <c r="T52" s="2" t="inlineStr">
-        <is>
-          <t>Add to MoA and MF as distinct from mental capability?</t>
-        </is>
-      </c>
-      <c r="U52" s="2" t="inlineStr">
-        <is>
-          <t>psychological capability</t>
-        </is>
-      </c>
+      <c r="T52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="inlineStr"/>
       <c r="V52" s="2" t="inlineStr"/>
       <c r="W52" s="2" t="inlineStr"/>
       <c r="X52" s="2" t="inlineStr"/>
-      <c r="Y52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Y52" s="2" t="inlineStr"/>
       <c r="Z52" s="2" t="inlineStr"/>
-      <c r="AA52" s="2" t="inlineStr"/>
+      <c r="AA52" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB52" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4573,34 +4571,34 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037030</t>
+          <t>BCIO:037029</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>psychological behavioural capability</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
+          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>A process underpinning experience or generation of behaviour.</t>
+          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -4620,10 +4618,14 @@
       <c r="S53" s="2" t="inlineStr"/>
       <c r="T53" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="U53" s="2" t="inlineStr"/>
+          <t>Add to MoA and MF as distinct from mental capability?</t>
+        </is>
+      </c>
+      <c r="U53" s="2" t="inlineStr">
+        <is>
+          <t>psychological capability</t>
+        </is>
+      </c>
       <c r="V53" s="2" t="inlineStr"/>
       <c r="W53" s="2" t="inlineStr"/>
       <c r="X53" s="2" t="inlineStr"/>
@@ -4646,29 +4648,29 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037031</t>
+          <t>BCIO:037030</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>reflective motivation</t>
+          <t>psychological process</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>A motivation that involves reflective thinking.</t>
+          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Psychological processes of conscious planning and decision making.</t>
+          <t>A process underpinning experience or generation of behaviour.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -4685,11 +4687,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr"/>
       <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr">
-        <is>
-          <t>reflective thinking</t>
-        </is>
-      </c>
+      <c r="N54" s="2" t="inlineStr"/>
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr"/>
       <c r="Q54" s="2" t="inlineStr"/>
@@ -4697,16 +4695,12 @@
       <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA</t>
+          <t>Add to MoA and MF?</t>
         </is>
       </c>
       <c r="U54" s="2" t="inlineStr"/>
       <c r="V54" s="2" t="inlineStr"/>
-      <c r="W54" s="2" t="inlineStr">
-        <is>
-          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
-        </is>
-      </c>
+      <c r="W54" s="2" t="inlineStr"/>
       <c r="X54" s="2" t="inlineStr"/>
       <c r="Y54" s="2" t="inlineStr">
         <is>
@@ -4714,11 +4708,7 @@
         </is>
       </c>
       <c r="Z54" s="2" t="inlineStr"/>
-      <c r="AA54" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="AA54" s="2" t="inlineStr"/>
       <c r="AB54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4731,29 +4721,29 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:037031</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>reflective motivation</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
+          <t>A motivation that involves reflective thinking.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Conscious reasoning, estimation, calculation or decision making.</t>
+          <t>Psychological processes of conscious planning and decision making.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -4770,7 +4760,11 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr"/>
       <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>reflective thinking</t>
+        </is>
+      </c>
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr"/>
       <c r="Q55" s="2" t="inlineStr"/>
@@ -4778,12 +4772,16 @@
       <c r="S55" s="2" t="inlineStr"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006112 to reflect improved definition?</t>
+          <t>Add to MoA</t>
         </is>
       </c>
       <c r="U55" s="2" t="inlineStr"/>
       <c r="V55" s="2" t="inlineStr"/>
-      <c r="W55" s="2" t="inlineStr"/>
+      <c r="W55" s="2" t="inlineStr">
+        <is>
+          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
+        </is>
+      </c>
       <c r="X55" s="2" t="inlineStr"/>
       <c r="Y55" s="2" t="inlineStr">
         <is>
@@ -4791,7 +4789,11 @@
         </is>
       </c>
       <c r="Z55" s="2" t="inlineStr"/>
-      <c r="AA55" s="2" t="inlineStr"/>
+      <c r="AA55" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB55" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4804,29 +4806,29 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037032</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>restriction behaviour change intervention</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
+          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Using formal social rules to set boundaries for a behaviour.</t>
+          <t>Conscious reasoning, estimation, calculation or decision making.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -4836,7 +4838,7 @@
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
@@ -4851,20 +4853,12 @@
       <c r="S56" s="2" t="inlineStr"/>
       <c r="T56" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U56" s="2" t="inlineStr">
-        <is>
-          <t>restriction</t>
-        </is>
-      </c>
+          <t>Amend BCIO:006112 to reflect improved definition?</t>
+        </is>
+      </c>
+      <c r="U56" s="2" t="inlineStr"/>
       <c r="V56" s="2" t="inlineStr"/>
-      <c r="W56" s="2" t="inlineStr">
-        <is>
-          <t>This involves what people should do as well as what they are not allowed to do.</t>
-        </is>
-      </c>
+      <c r="W56" s="2" t="inlineStr"/>
       <c r="X56" s="2" t="inlineStr"/>
       <c r="Y56" s="2" t="inlineStr">
         <is>
@@ -4885,39 +4879,39 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:037032</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>restriction behaviour change intervention</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+          <t>Using formal social rules to set boundaries for a behaviour.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr"/>
@@ -4932,12 +4926,20 @@
       <c r="S57" s="2" t="inlineStr"/>
       <c r="T57" s="2" t="inlineStr">
         <is>
-          <t>Amend in MoA?</t>
-        </is>
-      </c>
-      <c r="U57" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="U57" s="2" t="inlineStr">
+        <is>
+          <t>restriction</t>
+        </is>
+      </c>
       <c r="V57" s="2" t="inlineStr"/>
-      <c r="W57" s="2" t="inlineStr"/>
+      <c r="W57" s="2" t="inlineStr">
+        <is>
+          <t>This involves what people should do as well as what they are not allowed to do.</t>
+        </is>
+      </c>
       <c r="X57" s="2" t="inlineStr"/>
       <c r="Y57" s="2" t="inlineStr">
         <is>
@@ -4945,11 +4947,7 @@
         </is>
       </c>
       <c r="Z57" s="2" t="inlineStr"/>
-      <c r="AA57" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="AA57" s="2" t="inlineStr"/>
       <c r="AB57" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4962,39 +4960,39 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037033</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>spill-over effect intervention criterion</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr"/>
@@ -5009,20 +5007,12 @@
       <c r="S58" s="2" t="inlineStr"/>
       <c r="T58" s="2" t="inlineStr">
         <is>
-          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="U58" s="2" t="inlineStr">
-        <is>
-          <t>side-effect, spill-over effect, unintended consequence</t>
-        </is>
-      </c>
+          <t>Amend in MoA?</t>
+        </is>
+      </c>
+      <c r="U58" s="2" t="inlineStr"/>
       <c r="V58" s="2" t="inlineStr"/>
-      <c r="W58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
-        </is>
-      </c>
+      <c r="W58" s="2" t="inlineStr"/>
       <c r="X58" s="2" t="inlineStr"/>
       <c r="Y58" s="2" t="inlineStr">
         <is>
@@ -5030,7 +5020,11 @@
         </is>
       </c>
       <c r="Z58" s="2" t="inlineStr"/>
-      <c r="AA58" s="2" t="inlineStr"/>
+      <c r="AA58" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB58" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -5041,154 +5035,235 @@
       <c r="AE58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037033</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>spill-over effect intervention criterion</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>APEASE criterion</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="inlineStr"/>
+      <c r="Q59" s="2" t="inlineStr"/>
+      <c r="R59" s="2" t="inlineStr"/>
+      <c r="S59" s="2" t="inlineStr"/>
+      <c r="T59" s="2" t="inlineStr">
+        <is>
+          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="U59" s="2" t="inlineStr">
+        <is>
+          <t>side-effect, spill-over effect, unintended consequence</t>
+        </is>
+      </c>
+      <c r="V59" s="2" t="inlineStr"/>
+      <c r="W59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
+        </is>
+      </c>
+      <c r="X59" s="2" t="inlineStr"/>
+      <c r="Y59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z59" s="2" t="inlineStr"/>
+      <c r="AA59" s="2" t="inlineStr"/>
+      <c r="AB59" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AC59" s="2" t="inlineStr"/>
+      <c r="AD59" s="2" t="inlineStr"/>
+      <c r="AE59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Reasoning with words, symbols or images.</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>BCIO:050000</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>training behaviour change intervention</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention  that involves using demonstration, feedback or practice to improve physical or psychological skills.</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>Using demonstration, feedback, and practice to improve physical or psychological skills such as ability to analyse information and plan on the basis of that information.</t>
         </is>
       </c>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="H60" s="2" t="inlineStr">
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I60" s="2" t="inlineStr">
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
-      <c r="P60" s="2" t="inlineStr"/>
-      <c r="Q60" s="2" t="inlineStr"/>
-      <c r="R60" s="2" t="inlineStr"/>
-      <c r="S60" s="2" t="inlineStr"/>
-      <c r="T60" s="2" t="inlineStr">
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr"/>
+      <c r="Q61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr"/>
+      <c r="T61" s="2" t="inlineStr">
         <is>
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="U60" s="2" t="inlineStr">
+      <c r="U61" s="2" t="inlineStr">
         <is>
           <t>training</t>
         </is>
       </c>
-      <c r="V60" s="2" t="inlineStr"/>
-      <c r="W60" s="2" t="inlineStr"/>
-      <c r="X60" s="2" t="inlineStr"/>
-      <c r="Y60" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z60" s="2" t="inlineStr"/>
-      <c r="AA60" s="2" t="inlineStr">
+      <c r="V61" s="2" t="inlineStr"/>
+      <c r="W61" s="2" t="inlineStr"/>
+      <c r="X61" s="2" t="inlineStr"/>
+      <c r="Y61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z61" s="2" t="inlineStr"/>
+      <c r="AA61" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="AB60" s="2" t="inlineStr">
+      <c r="AB61" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="AC60" s="2" t="inlineStr"/>
-      <c r="AD60" s="2" t="inlineStr"/>
-      <c r="AE60" s="2" t="inlineStr"/>
+      <c r="AC61" s="2" t="inlineStr"/>
+      <c r="AD61" s="2" t="inlineStr"/>
+      <c r="AE61" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
+++ b/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
@@ -984,8 +984,10 @@
         </is>
       </c>
       <c r="X6" s="3" t="inlineStr"/>
-      <c r="Y6" s="3" t="n">
-        <v>0</v>
+      <c r="Y6" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z6" s="3" t="inlineStr"/>
       <c r="AA6" s="3" t="inlineStr">
@@ -4504,69 +4506,75 @@
       <c r="AE51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050290</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050291</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>promotion</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>An intervention that is aimed at increasing the likelihood of something.</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr"/>
+      <c r="E52" s="3" t="inlineStr"/>
+      <c r="F52" s="3" t="inlineStr"/>
+      <c r="G52" s="3" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr">
+      <c r="H52" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I52" s="2" t="inlineStr">
+      <c r="I52" s="3" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr"/>
-      <c r="Q52" s="2" t="inlineStr"/>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr"/>
-      <c r="T52" s="2" t="inlineStr"/>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
-      <c r="W52" s="2" t="inlineStr"/>
-      <c r="X52" s="2" t="inlineStr"/>
-      <c r="Y52" s="2" t="inlineStr"/>
-      <c r="Z52" s="2" t="inlineStr"/>
-      <c r="AA52" s="2" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr"/>
+      <c r="K52" s="3" t="inlineStr"/>
+      <c r="L52" s="3" t="inlineStr"/>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="3" t="inlineStr"/>
+      <c r="P52" s="3" t="inlineStr"/>
+      <c r="Q52" s="3" t="inlineStr"/>
+      <c r="R52" s="3" t="inlineStr"/>
+      <c r="S52" s="3" t="inlineStr"/>
+      <c r="T52" s="3" t="inlineStr"/>
+      <c r="U52" s="3" t="inlineStr"/>
+      <c r="V52" s="3" t="inlineStr"/>
+      <c r="W52" s="3" t="inlineStr">
+        <is>
+          <t>This is the most general class of entity relating to things that are done to influence people. It includes supporting, enabling, persuading, encouraging and forcing.</t>
+        </is>
+      </c>
+      <c r="X52" s="3" t="inlineStr"/>
+      <c r="Y52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3" t="inlineStr"/>
+      <c r="AA52" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="AB52" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AC52" s="2" t="inlineStr"/>
-      <c r="AD52" s="2" t="inlineStr"/>
-      <c r="AE52" s="2" t="inlineStr"/>
+      <c r="AB52" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="AC52" s="3" t="inlineStr"/>
+      <c r="AD52" s="3" t="inlineStr"/>
+      <c r="AE52" s="3" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">

--- a/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
+++ b/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
@@ -3446,7 +3446,7 @@
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -3488,7 +3488,11 @@
         </is>
       </c>
       <c r="Z38" s="2" t="inlineStr"/>
-      <c r="AA38" s="2" t="inlineStr"/>
+      <c r="AA38" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB38" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
+++ b/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
@@ -3429,24 +3429,24 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental behavioural capability</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
+          <t>A behavioural capability that necessarily includes mental processes in its realisation.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
+          <t>A person's ability to perform a behaviour arising from their psychological functioning.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -3471,7 +3471,7 @@
       <c r="S38" s="2" t="inlineStr"/>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF as distinct from mental capability?</t>
+          <t>Add to MoA and MF as distinct from mental capability</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">

--- a/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
+++ b/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
@@ -3681,7 +3681,7 @@
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3719,7 +3719,11 @@
         </is>
       </c>
       <c r="Z41" s="2" t="inlineStr"/>
-      <c r="AA41" s="2" t="inlineStr"/>
+      <c r="AA41" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB41" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
+++ b/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
@@ -3674,7 +3674,7 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
+          <t>A process process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
@@ -3704,11 +3704,7 @@
       <c r="Q41" s="2" t="inlineStr"/>
       <c r="R41" s="2" t="inlineStr"/>
       <c r="S41" s="2" t="inlineStr"/>
-      <c r="T41" s="2" t="inlineStr">
-        <is>
-          <t>Amend BCIO:006133 in MoA to correct the definition</t>
-        </is>
-      </c>
+      <c r="T41" s="2" t="inlineStr"/>
       <c r="U41" s="2" t="inlineStr"/>
       <c r="V41" s="2" t="inlineStr"/>
       <c r="W41" s="2" t="inlineStr"/>

--- a/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
+++ b/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
@@ -3897,7 +3897,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A persons ability to do something such as see, hear, behave in a particular way, think etc.</t>
+          <t>A persons abilitie something such as see, hear, behave in a particular way, think etc.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -3924,11 +3924,17 @@
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="n">
-        <v>0</v>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB44" t="inlineStr">
         <is>
           <t>External</t>

--- a/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
+++ b/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A behavioural capability that necessarily includes mental processes in its realisation.</t>
+          <t>A behavioural capability that includes mental processes in its realisation.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">

--- a/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
+++ b/BehaviourChangeWheel/BCIO_BCW_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2332,81 +2338,81 @@
       <c r="AE23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>BCIO:037016</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>criterion</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>A standard that can be used to evaluate something.</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="H24" s="3" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr">
+      <c r="I24" s="3" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr"/>
-      <c r="T24" s="2" t="inlineStr">
+      <c r="J24" s="3" t="inlineStr"/>
+      <c r="K24" s="3" t="inlineStr"/>
+      <c r="L24" s="3" t="inlineStr"/>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="inlineStr"/>
+      <c r="P24" s="3" t="inlineStr"/>
+      <c r="Q24" s="3" t="inlineStr"/>
+      <c r="R24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr"/>
+      <c r="T24" s="3" t="inlineStr">
         <is>
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
-      <c r="W24" s="2" t="inlineStr"/>
-      <c r="X24" s="2" t="inlineStr"/>
-      <c r="Y24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z24" s="2" t="inlineStr"/>
-      <c r="AA24" s="2" t="inlineStr">
+      <c r="U24" s="3" t="inlineStr"/>
+      <c r="V24" s="3" t="inlineStr"/>
+      <c r="W24" s="3" t="inlineStr"/>
+      <c r="X24" s="3" t="inlineStr"/>
+      <c r="Y24" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z24" s="3" t="inlineStr"/>
+      <c r="AA24" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="AB24" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AC24" s="2" t="inlineStr"/>
-      <c r="AD24" s="2" t="inlineStr"/>
-      <c r="AE24" s="2" t="inlineStr"/>
+      <c r="AB24" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="AC24" s="3" t="inlineStr"/>
+      <c r="AD24" s="3" t="inlineStr"/>
+      <c r="AE24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
